--- a/medicine/Psychotrope/Braquet_(cépage)/Braquet_(cépage).xlsx
+++ b/medicine/Psychotrope/Braquet_(cépage)/Braquet_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Braquet_(c%C3%A9page)</t>
+          <t>Braquet_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le braquet est un cépage rare à raisins noirs, utilisé dans la production des vins de Bellet, dans la région niçoise. Il est autorisé en France comme raisin de cuve sous son nom officiel Brachet N.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Braquet_(c%C3%A9page)</t>
+          <t>Braquet_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que différent, il a parfois été confondu avec le calitor[réf. nécessaire]. Il n'est pas non plus identique au cépage italien brachetto.
-Ce raisin noir domine les assemblages de Bellet. Auparavant, la dénomination de « Braquet-Bellet » figurait sur les étiquettes des bouteilles[1]. Il est connu pour son rendement variable d'une année à l'autre. 
+Ce raisin noir domine les assemblages de Bellet. Auparavant, la dénomination de « Braquet-Bellet » figurait sur les étiquettes des bouteilles. Il est connu pour son rendement variable d'une année à l'autre. 
 </t>
         </is>
       </c>
